--- a/SprintPlanning.xlsx
+++ b/SprintPlanning.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amost\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annamaria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AEDB21-9E35-40E2-BBEB-126EA578DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA69BF-5EB0-4672-9616-C2A99961BE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="612" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
     <sheet name="FirstSprintBacklog" sheetId="3" r:id="rId2"/>
     <sheet name="SecondSprintBacklog" sheetId="4" r:id="rId3"/>
+    <sheet name="ThirdSprintBacklog" sheetId="7" r:id="rId4"/>
+    <sheet name="Burndown Chart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="149">
   <si>
     <t>#ID</t>
   </si>
@@ -68,64 +72,206 @@
     <t>User Story</t>
   </si>
   <si>
-    <t>WAITING FOR DEVELOPMENT</t>
+    <t>DONE</t>
   </si>
   <si>
-    <t xml:space="preserve">Come utente, voglio che l'applicazione controlli periodicamente le regole in modo da valutare automaticamente se i trigger sono attivati. </t>
+    <t>Raffaele Sbardella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Dato che l'utente ha cliccato sul bottone "Crea una regola" , quando seleziona il trigger e l'azione,  allora può  in qualsiasi momento aggiungere la regola cliccando su "Aggiungi regola".
+- Data una regola, quando si verifica la condizione specificata nel trigger, allora si esegue l'azione corrispondente.
+- Dato un set di regole, quando l'utente accede all'applicazione, allora può visualizzare l'elenco di regole
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come utente, voglio che l'applicazione controlli periodicamente le regole ogni 5 secondi in modo da valutare automaticamente se i trigger sono attivati. </t>
+  </si>
+  <si>
+    <t>Alessandro Marchesano</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente crea le regole, quando clicca su "Add Rule", allora esse vengono valutate automaticamente.</t>
   </si>
   <si>
     <t>Come utente, voglio specificare come trigger un particolare orario del giorno in modo che l'azione venga eseguita al tempo specificato.</t>
   </si>
   <si>
+    <t>Amos Tecce</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger TimeOfDay, allora può selezionare un orario del giorno.</t>
+  </si>
+  <si>
     <t>Come utente, voglio poter selezionare un file audio per un'azione in modo che sia riprodotto quando la regola viene attivata.</t>
+  </si>
+  <si>
+    <t>Valentina Micera
+Raffaele Sbardella</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente crea una regola, quando clicca su "Create a Rule", può selezionare come azione di un trigger la riproduzione di un file audio
+- Dato che l'utente seleziona un'azione, quando sceglie di riprodurre un audio,  allora viene aperta una finestra che gli consente di selezionarne uno presente sul suo dispositivo</t>
   </si>
   <si>
     <t>Come utente, voglio poter specificare un messaggio di testo  per un'azione, in modo che sia mostrato quando la regola viene attivata.</t>
   </si>
   <si>
+    <t>Alessandro Marchesano
+Raffaele Sbardella</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente crea una regola, quando seleziona come azione di un trigger la comparsa di un messaggio di testo, allora compare una finestra di dialogo che mostra il messaggio.
+-  Dato che l'utente sceglie di mostrare un messaggio, quando seleziona l'azione ShowMessage, allora deve digitare il testo in una casella apposita prima di cliccare su "Aggiungi regola".
+- Dato che l'utente ha impostato come azione di una regola "ShowMessage", quando il messaggio appare a video, allora la finestra di dialogo deve essere esplicitamente chiusa dall'utente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Come utente, voglio eliminare regole esistenti in qualsiasi momento perché non più necessarie. </t>
+  </si>
+  <si>
+    <t>- Dato che l'utente visualizza la tabella delle regole, quando l'utente seleziona una regola dall'elenco e clicca su "Elimina regola", allora la regola viene rimossa dall'elenco.</t>
   </si>
   <si>
     <t>Come utente, voglio poter attivare o disattivare una regola in modo che non venga verificata la condizione ma faccia ancora parte dell'elenco delle regole.</t>
   </si>
   <si>
+    <t>Amos Tecce
+Raffaele Sbardella</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente visualizza la tabella delle regole, quando l'utente seleziona una regola attiva dall'elenco e clicca su "Disattiva regola", allora la regola viene disattivata e non viene più verificata la condizione ad essa relativa.
+- Dato che l'utente visualizza la tabella delle regole, quando l'utente seleziona una regola disattivata e clicca su "Attiva regola", allora la regola viene attivata e viene nuovamente verificata la regola ad essa relativa.</t>
+  </si>
+  <si>
     <t>Come utente, voglio che le regole siano salvate su un file in modo da non perderle al riavvio dell'applicazione.</t>
+  </si>
+  <si>
+    <t>Valentina Micera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Dato l'elenco delle regole, quando viene fatto un inserimento, una cancellazione, un'attivazione o una disattivazione di una regola dall'elenco, allora viene salvato su un file lo stato attuale delle regole.
+- Dato che l'utente aveva creato delle regole in precedenza, quando l'applicazione viene avviata, allora viene ripristinato il suo stato precedente importando l'elenco delle regole da un file.
+</t>
   </si>
   <si>
     <t>Come utente, voglio poter specificare se la regola può essere eseguita una sola volta quando il trigger è verificato oppure se si deve nuovamente verificare la condizione dopo un intervallo di tempo specificato in giorni, ore e minuti, in modo da avere una gestione più flessibile.</t>
   </si>
   <si>
-    <t>WAITING FOR ESTIMATION</t>
+    <t>- Dato che l'utente vuole creare una regola, quando clicca su "Create a Rule", allora deve specificare se, quando si verifica la condizione, la regola deve essere eseguita una sola volta o dopo un intervallo di tempo specificato.
+- Dato che l'utente vuole creare una regola, quando vuole che sia ripetibile, allora deve specificare l'intervallo di tempo in un'apposita casella.</t>
+  </si>
+  <si>
+    <t>Come utente, voglio poter impostare come azione l'aggiunta di una specifica stringa alla fine di uno specifico file di testo, in modo da aggiungere informazioni su un file in maniera automatica.</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona come azione AppendStringToFile, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. 
+- Dato che l'utente vuole creare una regola, quando seleziona come azione AppendStringToFile, allora deve specificare in una casella apposita la stringa da aggiungere alla fine del file selezionato.</t>
+  </si>
+  <si>
+    <t>Come utente, voglio poter impostare come azione la copia di uno specifico file in una specifica locazione, in modo da poter automatizzare la duplicazione di file.</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona come azione CopyFile, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. 
+- Dato che l'utente vuole creare una regola, quando seleziona come azione CopyFile, allora viene aperta una finestra che gli consente di selezionare una cartella dove sarà effettuata la copia del file selezionato.</t>
+  </si>
+  <si>
+    <t>Come utente, voglio poter impostare come azione lo spostamento di un file dalla sua locazione sorgente a una destinazione specificata, in modo da poter automatizzare la gestione di file.</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona come azione MoveFile, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. 
+- Dato che l'utente vuole creare una regola, quando seleziona come azione MoveFile, allora viene aperta una finestra che gli consente di selezionare una cartella dove sarà trasferito il file selezionato.</t>
   </si>
   <si>
     <t>Come utente, voglio poter impostare come azione l'eliminazione di uno specifico file, in modo da eliminare file non più necessari.</t>
   </si>
   <si>
+    <t xml:space="preserve">- Dato che l'utente vuole creare una regola, quando seleziona come azione DeleteFile, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. </t>
+  </si>
+  <si>
     <t>Come utente, voglio poter impostare come azione l'esecuzione di uno specifico programma esterno accompagnato da eventuali argomenti a linea di comando, in modo da automatizzare l'esecuzione e l'avvio di un programma.</t>
+  </si>
+  <si>
+    <t>Amos Tecce
+Alessandro Marchesano</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona come azione ExecuteProgram, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. 
+- Dato che l'utente vuole creare una regola, quando seleziona come azione ExecuteProgram, allora deve specificare in un'apposita casella gli argomenti a linea di comando.</t>
   </si>
   <si>
     <t>Come utente, voglio poter impostare come trigger uno specifico giorno della settimana, in modo da eseguire determinate azione in base al giorno della settimana.</t>
   </si>
   <si>
+    <t>Amos Tecce
+Raffele Sbardella</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger DayOfWeek, allora può selezionare un giorno della settimana da un'apposita lista.</t>
+  </si>
+  <si>
     <t>Come utente, voglio poter impostare come trigger uno specifico giorno del mese, in modo da eseguire determinate azioni in base al giorno del mese.</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger DayOfMonth, allora può selezionare un giorno del mese da un'apposita lista.</t>
+  </si>
+  <si>
+    <t>Come utente, voglio poter impostare come trigger una specifica data (gg/mm/aaaa), in modo da automatizzare le azioni in base al giorno dell'anno.</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger Date, allora può selezionare una data tramite DatePicker.</t>
   </si>
   <si>
     <t xml:space="preserve">Come utente, voglio poter impostare come trigger la presenza di un file con uno specifico nome in una specifica locazione, in modo da automatizzare azioni basandosi sui file. </t>
   </si>
   <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger ExistingFile, allora deve specificare il nome del file in un'apposita casella.
+-Dato che l'utente vuole creare una regola, quando seleziona il trigger ExistingFile, allora viene aperta una finestra che gli consente di selezionare una cartella in cui controllare se il file è presente.</t>
+  </si>
+  <si>
     <t>Come utente, voglio poter impostare come trigger il superamento da parte di uno specifico file di una soglia di grandezza preimpostata, in modo da eseguire azioni in caso di file con dimensioni eccessive.</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger FileSize, allora deve specificare la soglia in un'apposita casella.
+- Dato che l'utente vuole creare una regola, quando seleziona il trigger FileSize, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo.
+'- Dato che l'utente vuole creare una regola, quando seleziona il trigger FileSize, allora deve selezionare l'unità di misura della soglia da un'apposita lista.</t>
   </si>
   <si>
     <t>Come utente, voglio poter impostare come trigger uno specifico valore di ritorno ottenuto dall'esecuzione di un programma esterno con determinati argomenti a linea di comando, in modo da eseguire azioni in base all'esito di un programma.</t>
   </si>
   <si>
-    <t>Come utente, voglio poter impostare come azione una sequenza di azioni, la quale può contenere azioni elementari o altre sequenze, in modo da raggruppare azioni attivate dal medesimo trigger in un'unica regola.</t>
+    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger ExitStatus, allora deve specificare il valore di ritorno in un'apposita casella.
+- Dato che l'utente vuole creare una regola, quando seleziona il trigger ExitStatus, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo.
+- Dato che l'utente vuole creare una regola, quando seleziona il trigger ExitStatus, allora deve specificare in un'apposita casella gli argomenti a linea di comando.</t>
+  </si>
+  <si>
+    <t>Come utente, voglio poter impostare come azione una sequenza di azioni composta da azioni elementari o altre sequenze, in modo da raggruppare azioni attivate dal medesimo trigger in un'unica regola.</t>
+  </si>
+  <si>
+    <t>WAITING FOR DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>- Dato che l'utente vuole creare una regola, quando visualizza la schermata di creazione delle azioni, allora può visualizzare un'opzione che gli consente di selezionare come azione una sequenza di azioni.
+- Dato che l'utente vuole creare una regola, quando visualizza la schermata di creazione delle azioni, allora può visualizzare un'opzione che gli consente di eliminare un' azione presente all'interno della sequenza.
+- Dato che l'utente ha creato una regola con una sequenza di azioni, quando si attiva il trigger associato allora devono essere eseguite tutte le azioni contenute nella sequenza.
+- Dato che l'utente ha creato una regola con una sequenza di azioni, quando visualizza la lista delle regole, allora visualizza la sequenza di azioni precedentemente creata.
+- Dato che un utente ha creato una regola contenente una sequenza di azioni, quando riavvia l'applicazione, allora deve poter visualizzare la sequenza di azioni precedentemente creata.</t>
   </si>
   <si>
     <t>Come utente, voglio poter impostare come trigger un'espressione composta da uno o più trigger nella quale compaiono gli  operatori logici AND, OR e NOT, in modo da poter specificare condizioni più complesse e articolate.</t>
   </si>
   <si>
+    <t xml:space="preserve">- Dato che l'utente vuole creare una regola, quando visualizza la schermata di creazione dei trigger, allora può visualizzare un'opzione che gli consente di creare un trigger composto.
+- Dato che l'utente vuole creare una regola con un trigger composto, quando seleziona due trigger (elementari o composti), allora può combinarli tramite gli operatori logici AND e OR.
+- Dato che l'utente vuole creare una regola con un trigger (elementare o composto), quando si trova nella schermata di creazione dei trigger, allora può selezionare un'opzione che gli consente di negare il trigger.
+- Dato che l'utente ha creato una regola con un trigger composto, quando visualizza la lista delle regole, allora visualizza la combinazione del trigger precedentemente creata.
+- Dato che un utente ha creato una regola contenente un trigger composto, quando riavvia l'applicazione, allora deve poter visualizzare il trigger composto precedentemente creato.
+ </t>
+  </si>
+  <si>
     <t>Come utente, voglio poter definire dei contatori con un proprio nome e un valore intero preimpostato, in modo da tenere traccia di determinati valori di interesse.</t>
+  </si>
+  <si>
+    <t>WAITING FOR ESTIMATION</t>
   </si>
   <si>
     <t>Come utente, voglio poter visualizzare e modificare il valore dei contatori già creati, in modo da gestire più agevolmente i valori dei contatori.</t>
@@ -147,6 +293,25 @@
   </si>
   <si>
     <t>Come utente, voglio poter utilizzare il valore di uno specifico contatore come variabile all'interno delle azioni che operano con le stringhe, in modo da rendere dinamico il testo generato da un'azione.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Karla"/>
+      </rPr>
+      <t>Velocità stimata:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Karla"/>
+      </rPr>
+      <t xml:space="preserve"> 49</t>
+    </r>
   </si>
   <si>
     <t>Realizzazione dell'interfaccia grafica in FXML secondo il prototipo.</t>
@@ -176,6 +341,9 @@
   </si>
   <si>
     <t>Implementazione della logica necessaria per eseguire le azioni associate alla regola quando il trigger viene attivato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come utente, voglio che l'applicazione controlli periodicamente le regole in modo da valutare automaticamente se i trigger sono attivati. </t>
   </si>
   <si>
     <r>
@@ -289,6 +457,9 @@
     <t>Implementare le funzionalità per la gestione dell'attivazione/disattivazione delle regole.</t>
   </si>
   <si>
+    <t>Aggiornamento dell'interfaccia grafica per consentire l'attivazione/disattivazione delle regole tramite tasto destro.</t>
+  </si>
+  <si>
     <t>Realizzazione di un Service per il salvataggio delle regole su un file.</t>
   </si>
   <si>
@@ -315,232 +486,7 @@
     </r>
   </si>
   <si>
-    <t>Come utente, voglio poter impostare come trigger una specifica data (gg/mm/aaaa), in modo da automatizzare le azioni in base al giorno dell'anno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Come utente, voglio che l'applicazione controlli periodicamente le regole ogni 5 secondi in modo da valutare automaticamente se i trigger sono attivati. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Dato che l'utente ha cliccato sul bottone "Crea una regola" , quando seleziona il trigger e l'azione,  allora può  in qualsiasi momento aggiungere la regola cliccando su "Aggiungi regola".
-- Data una regola, quando si verifica la condizione specificata nel trigger, allora si esegue l'azione corrispondente.
-- Dato un set di regole, quando l'utente accede all'applicazione, allora può visualizzare l'elenco di regole
-</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente crea le regole, quando clicca su "Add Rule", allora esse vengono valutate automaticamente.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente crea una regola, quando clicca su "Create a Rule", può selezionare come azione di un trigger la riproduzione di un file audio
-- Dato che l'utente seleziona un'azione, quando sceglie di riprodurre un audio,  allora viene aperta una finestra che gli consente di selezionarne uno presente sul suo dispositivo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Karla"/>
-      </rPr>
-      <t>Velocità stimata:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Karla"/>
-      </rPr>
-      <t xml:space="preserve"> 49</t>
-    </r>
-  </si>
-  <si>
-    <t>- Dato che l'utente crea una regola, quando seleziona come azione di un trigger la comparsa di un messaggio di testo, allora compare una finestra di dialogo che mostra il messaggio.
--  Dato che l'utente sceglie di mostrare un messaggio, quando seleziona l'azione ShowMessage, allora deve digitare il testo in una casella apposita prima di cliccare su "Aggiungi regola".
-- Dato che l'utente ha impostato come azione di una regola "ShowMessage", quando il messaggio appare a video, allora la finestra di dialogo deve essere esplicitamente chiusa dall'utente</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente visualizza la tabella delle regole, quando l'utente seleziona una regola dall'elenco e clicca su "Elimina regola", allora la regola viene rimossa dall'elenco.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente visualizza la tabella delle regole, quando l'utente seleziona una regola attiva dall'elenco e clicca su "Disattiva regola", allora la regola viene disattivata e non viene più verificata la condizione ad essa relativa.
-- Dato che l'utente visualizza la tabella delle regole, quando l'utente seleziona una regola disattivata e clicca su "Attiva regola", allora la regola viene attivata e viene nuovamente verificata la regola ad essa relativa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Dato l'elenco delle regole, quando viene fatto un inserimento, una cancellazione, un'attivazione o una disattivazione di una regola dall'elenco, allora viene salvato su un file lo stato attuale delle regole.
-- Dato che l'utente aveva creato delle regole in precedenza, quando l'applicazione viene avviata, allora viene ripristinato il suo stato precedente importando l'elenco delle regole da un file.
-</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando clicca su "Create a Rule", allora deve specificare se, quando si verifica la condizione, la regola deve essere eseguita una sola volta o dopo un intervallo di tempo specificato.
-- Dato che l'utente vuole creare una regola, quando vuole che sia ripetibile, allora deve specificare l'intervallo di tempo in un'apposita casella.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona come azione AppendStringToFile, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. 
-- Dato che l'utente vuole creare una regola, quando seleziona come azione AppendStringToFile, allora deve specificare in una casella apposita la stringa da aggiungere alla fine del file selezionato.</t>
-  </si>
-  <si>
-    <t>Come utente, voglio poter impostare come azione lo spostamento di un file dalla sua locazione sorgente a una destinazione specificata, in modo da poter automatizzare la gestione di file.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona come azione CopyFile, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. 
-- Dato che l'utente vuole creare una regola, quando seleziona come azione CopyFile, allora viene aperta una finestra che gli consente di selezionare una cartella dove sarà effettuata la copia del file selezionato.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona come azione MoveFile, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. 
-- Dato che l'utente vuole creare una regola, quando seleziona come azione MoveFile, allora viene aperta una finestra che gli consente di selezionare una cartella dove sarà trasferito il file selezionato.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Dato che l'utente vuole creare una regola, quando seleziona come azione DeleteFile, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. </t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona come azione ExecuteProgram, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo. 
-- Dato che l'utente vuole creare una regola, quando seleziona come azione ExecuteProgram, allora deve specificare in un'apposita casella gli argomenti a linea di comando.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger TimeOfDay, allora può selezionare un orario del giorno.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger DayOfWeek, allora può selezionare un giorno della settimana da un'apposita lista.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger DayOfMonth, allora può selezionare un giorno del mese da un'apposita lista.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger Date, allora può selezionare una data tramite DatePicker.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger ExistingFile, allora deve specificare il nome del file in un'apposita casella.
--Dato che l'utente vuole creare una regola, quando seleziona il trigger ExistingFile, allora viene aperta una finestra che gli consente di selezionare una cartella in cui controllare se il file è presente.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger FileSize, allora deve specificare la soglia in un'apposita casella.
-- Dato che l'utente vuole creare una regola, quando seleziona il trigger FileSize, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo.
-'- Dato che l'utente vuole creare una regola, quando seleziona il trigger FileSize, allora deve selezionare l'unità di misura della soglia da un'apposita lista.</t>
-  </si>
-  <si>
-    <t>- Dato che l'utente vuole creare una regola, quando seleziona il trigger ExitStatus, allora deve specificare il valore di ritorno in un'apposita casella.
-- Dato che l'utente vuole creare una regola, quando seleziona il trigger ExitStatus, allora viene aperta una finestra che gli consente di selezionare un file presente sul suo dispositivo.
-- Dato che l'utente vuole creare una regola, quando seleziona il trigger ExitStatus, allora deve specificare in un'apposita casella gli argomenti a linea di comando.</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>IN PROGRESS</t>
-  </si>
-  <si>
-    <t>Creazione della classe AppendStringToFileAction.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di selezionare un file.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di scrivere una stringa.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di scrivere una stringa alla fine di un file di testo.</t>
-  </si>
-  <si>
-    <t>Creazione della classe CopyFileAction.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di selezionare una cartella.</t>
-  </si>
-  <si>
-    <t>Creazione della classe MoveFileAction</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di trasferire un file in un'allocazione specificata.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di eliminare un file.</t>
-  </si>
-  <si>
-    <t>Creazione della classe DeleteFileAction.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di inserire argomenti a linea di comando.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di eseguire un programma passando degli argomenti a linea di comando.</t>
-  </si>
-  <si>
-    <t>Creazione della classe ExecuteProgramAction.</t>
-  </si>
-  <si>
-    <t>Creazione della classe DayOfWeekTrigger.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di selezionare un giorno della settimana.</t>
-  </si>
-  <si>
-    <t>Creazione della classe DayOfMonthTrigger.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per selezionare un giorno della settimana.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di selezionare un giorno della mese.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per selezionare una data.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di selezionare una data.</t>
-  </si>
-  <si>
-    <t>Creazione della classe DateTrigger.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di specificare il nome del file.</t>
-  </si>
-  <si>
-    <t>Creazione della classe ExistingFileTrigger.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di verificare la presenza di un file.</t>
-  </si>
-  <si>
-    <t>Creazione della classe FileSizeTrigger.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per selezionare un giorno del mese.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di scrivere una soglia.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di verificare se la dimensione del file eccede la soglia.</t>
-  </si>
-  <si>
-    <t>Creazione della classe ExitStatusTrigger.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di scrivere un valore di ritorno.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di scrivere argomenti a linea di comando.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di verificare il valore di ritorno ottenuto dall'esecuzione di un programma esterno.</t>
-  </si>
-  <si>
-    <t>Come utente, voglio poter impostare come azione l'aggiunta di una specifica stringa alla fine di uno specifico file di testo, in modo da aggiungere informazioni su un file in maniera automatica.</t>
-  </si>
-  <si>
-    <t>Implementazione delle funzionalità nel Controller che consentono all'utente di copiare un file in una locazione specificata.</t>
-  </si>
-  <si>
-    <t>Come utente, voglio poter impostare come azione la copia di uno specifico file in una specifica locazione, in modo da poter automatizzare la duplicazione di file.</t>
-  </si>
-  <si>
-    <t>Come utente, voglio poter impostare come trigger il superamento da parte di uno specifico file di una soglia di grandezza preimpostata, in modo da monitorare automaticamente la dimensione dei file ed eseguire le azioni quando superano i limiti prefissati.</t>
-  </si>
-  <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire all'utente di selezionare l'unità di misura della dimensione del file.</t>
-  </si>
-  <si>
-    <t>Come utente, voglio poter impostare come trigger uno specifico valore di ritorno ottenuto dall'esecuzione di un programma esterno con determinati argomenti a linea di comando, in modo da eseguire azioni in base all'esito dell'esecuzione di un programma.</t>
   </si>
   <si>
     <t xml:space="preserve">13
@@ -551,38 +497,138 @@
     <t xml:space="preserve">Velocità stimata:47 </t>
   </si>
   <si>
-    <t>Raffaele Sbardella</t>
+    <t>Raffaele Sbardella
+Alessandro Marchesano</t>
   </si>
   <si>
-    <t>Alessandro Marchesano</t>
+    <t>Creazione della classe AppendStringToFileAction.</t>
   </si>
   <si>
-    <t>Amos Tecce</t>
+    <t>Aggiornamento del controller.</t>
   </si>
   <si>
-    <t>Valentina Micera
-Raffaele Sbardella</t>
+    <t>Creazione dell'handler per l'aggiornamento dell'interfaccia grafica e implementazione delle funzionalità relative a quest'azione.</t>
   </si>
   <si>
-    <t>Alessandro Marchesano
-Raffaele Sbardella</t>
+    <t>Creazione della classe CopyFileAction.</t>
   </si>
   <si>
-    <t>Amos Tecce
-Raffaele Sbardella</t>
+    <t>Creazione dell'handler per l'aggiornamento dell'interfaccia grafica e implementazione delle funzionalità relative a quest'azione</t>
   </si>
   <si>
-    <t>Valentina Micera</t>
+    <t>Creazione della classe MoveFileAction</t>
   </si>
   <si>
-    <t>Aggiornamento dell'interfaccia grafica per consentire l'attivazione/disattivazione delle regole tramite tasto destro.</t>
+    <t>Creazione della classe DeleteFileAction.</t>
+  </si>
+  <si>
+    <t>Creazione della classe ExecuteProgramAction.</t>
+  </si>
+  <si>
+    <t>Creazione della classe DayOfWeekTrigger.</t>
+  </si>
+  <si>
+    <t>Raffele Sbardella</t>
+  </si>
+  <si>
+    <t>Creazione della classe DayOfMonthTrigger.</t>
+  </si>
+  <si>
+    <t>Creazione della classe DateTrigger.</t>
+  </si>
+  <si>
+    <t>Creazione della classe ExistingFileTrigger.</t>
+  </si>
+  <si>
+    <t>Come utente, voglio poter impostare come trigger il superamento da parte di uno specifico file di una soglia di grandezza preimpostata, in modo da monitorare automaticamente la dimensione dei file ed eseguire le azioni quando superano i limiti prefissati.</t>
+  </si>
+  <si>
+    <t>Creazione della classe FileSizeTrigger.</t>
+  </si>
+  <si>
+    <t>Come utente, voglio poter impostare come trigger uno specifico valore di ritorno ottenuto dall'esecuzione di un programma esterno con determinati argomenti a linea di comando, in modo da eseguire azioni in base all'esito dell'esecuzione di un programma.</t>
+  </si>
+  <si>
+    <t>Creazione della classe ExitStatusTrigger.</t>
+  </si>
+  <si>
+    <t>Come utente, voglio poter impostare come azione una sequenza di azioni, la quale può contenere azioni elementari o altre sequenze, in modo da raggruppare azioni attivate dal medesimo trigger in un'unica regola.</t>
+  </si>
+  <si>
+    <t>Velocità stimata: 47</t>
+  </si>
+  <si>
+    <t>Aggiornamento della classe Rule</t>
+  </si>
+  <si>
+    <t>Aggiornamento dell'interfaccia grafica per consentire di creare una sequenza di azioni</t>
+  </si>
+  <si>
+    <t>Implementazione del salvataggio per sequenze di azioni</t>
+  </si>
+  <si>
+    <t>Implementazione delle funzionalità per consentire di eseguire come azione una sequenza di azioni</t>
+  </si>
+  <si>
+    <t>Implementazione del pattern Composite per la gestione dei trigger compositi</t>
+  </si>
+  <si>
+    <t>Aggiornamento dell'interfaccia grafica per consentire di creare trigger compositi</t>
+  </si>
+  <si>
+    <t>Implementazione del salvataggio per composizioni di trigger</t>
+  </si>
+  <si>
+    <t>Implementazioni delle funzionalità per consentire di verificare trigger compositi</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thurs</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -691,6 +737,37 @@
       <color rgb="FF000000"/>
       <name val="Karla"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Karla"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -759,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -860,13 +937,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -905,7 +978,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,12 +1032,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale 2" xfId="2" xr:uid="{10C147A4-DB2E-48A4-94C5-D91728D124B2}"/>
@@ -997,6 +1119,1161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$5:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$F$5:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C173-43CD-983E-BBBA2DF3D6B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$5:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$G$5:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C173-43CD-983E-BBBA2DF3D6B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2044816415"/>
+        <c:axId val="1861597775"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2044816415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861597775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1861597775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2044816415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE78263-99DC-D301-7F08-21BFC9B7014E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,48 +2479,48 @@
   </sheetPr>
   <dimension ref="A1:AC1013"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="68" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="12" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.33203125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.33203125" style="68" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
@@ -1269,29 +2546,29 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="213" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="59">
+      <c r="C2" s="56">
         <v>1</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="56">
         <v>3</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>67</v>
+      <c r="F2" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1316,29 +2593,29 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="85.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59">
+      <c r="A3" s="56">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="59">
+      <c r="B3" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="56">
         <v>1</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="56">
         <v>5</v>
       </c>
-      <c r="F3" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>68</v>
+      <c r="F3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1363,29 +2640,29 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="114.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="59">
+      <c r="A4" s="56">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="59">
+      <c r="B4" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="56">
         <v>2</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="56">
         <v>3</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>82</v>
+      <c r="F4" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1410,29 +2687,29 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="162" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="59">
+      <c r="A5" s="56">
         <v>4</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="59">
+      <c r="B5" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="56">
         <v>2</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="56">
         <v>5</v>
       </c>
-      <c r="F5" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>69</v>
+      <c r="F5" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>21</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1457,29 +2734,29 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="258" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59">
+      <c r="A6" s="56">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="59">
+      <c r="B6" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="56">
         <v>2</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="56">
         <v>3</v>
       </c>
-      <c r="F6" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>71</v>
+      <c r="F6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
@@ -1504,7 +2781,7 @@
     </row>
     <row r="7" spans="1:29" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -1534,29 +2811,29 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="121.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59">
+      <c r="A8" s="56">
         <v>6</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="59">
+      <c r="B8" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="56">
         <v>3</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="56">
         <v>1</v>
       </c>
-      <c r="F8" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>72</v>
+      <c r="F8" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1581,29 +2858,29 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="59">
+      <c r="A9" s="56">
         <v>7</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="59">
+      <c r="B9" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="56">
         <v>4</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="56">
         <v>8</v>
       </c>
-      <c r="F9" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>73</v>
+      <c r="F9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>29</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1628,29 +2905,29 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" ht="204" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="59">
+      <c r="A10" s="56">
         <v>8</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="59">
+      <c r="B10" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="56">
         <v>3</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="56">
         <v>8</v>
       </c>
-      <c r="F10" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>74</v>
+      <c r="F10" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1675,29 +2952,29 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="170.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30">
+      <c r="A11" s="56">
         <v>9</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="B11" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="56">
         <v>5</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="56">
         <v>13</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>75</v>
+      <c r="G11" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1723,7 +3000,7 @@
     </row>
     <row r="12" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
-      <c r="B12" s="65"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -1753,27 +3030,29 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
+      <c r="A13" s="57">
         <v>10</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="B13" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="56">
         <v>6</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="56">
         <v>3</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="66" t="s">
-        <v>76</v>
+      <c r="G13" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1797,28 +3076,30 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="193.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31">
+    <row r="14" spans="1:29" ht="193.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57">
         <v>11</v>
       </c>
-      <c r="B14" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="30">
+      <c r="B14" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="56">
         <v>6</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="56">
         <v>3</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="66" t="s">
-        <v>78</v>
+      <c r="G14" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1843,27 +3124,29 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="57">
         <v>12</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="30">
+      <c r="B15" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="56">
         <v>6</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="56">
         <v>3</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="66" t="s">
-        <v>79</v>
+      <c r="G15" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1888,27 +3171,29 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="129.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31">
+      <c r="A16" s="57">
         <v>13</v>
       </c>
-      <c r="B16" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="56">
         <v>6</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="56">
         <v>2</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="66" t="s">
-        <v>80</v>
+      <c r="G16" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1932,28 +3217,30 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
     </row>
-    <row r="17" spans="1:29" ht="178.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31">
+    <row r="17" spans="1:29" ht="178.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57">
         <v>14</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="30">
+      <c r="B17" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="56">
         <v>7</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="30">
-        <v>13</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="56">
+        <v>8</v>
+      </c>
+      <c r="F17" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="66" t="s">
-        <v>81</v>
+      <c r="G17" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1978,27 +3265,29 @@
       <c r="AC17" s="7"/>
     </row>
     <row r="18" spans="1:29" ht="82.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31">
+      <c r="A18" s="57">
         <v>15</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="B18" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="56">
         <v>6</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="56">
         <v>2</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="66" t="s">
-        <v>83</v>
+      <c r="G18" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2023,27 +3312,29 @@
       <c r="AC18" s="7"/>
     </row>
     <row r="19" spans="1:29" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31">
+      <c r="A19" s="57">
         <v>16</v>
       </c>
-      <c r="B19" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="56">
         <v>6</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="66" t="s">
-        <v>84</v>
+      <c r="G19" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>50</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2068,27 +3359,29 @@
       <c r="AC19" s="7"/>
     </row>
     <row r="20" spans="1:29" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31">
+      <c r="A20" s="57">
         <v>17</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="56">
         <v>6</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="56">
         <v>2</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="66" t="s">
-        <v>85</v>
+      <c r="G20" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>52</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2112,28 +3405,30 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31">
+    <row r="21" spans="1:29" ht="154.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="57">
         <v>18</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="56">
         <v>6</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="56">
         <v>3</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="66" t="s">
-        <v>86</v>
+      <c r="G21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2158,27 +3453,29 @@
       <c r="AC21" s="7"/>
     </row>
     <row r="22" spans="1:29" ht="206.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31">
+      <c r="A22" s="57">
         <v>19</v>
       </c>
-      <c r="B22" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="56">
         <v>6</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="66" t="s">
-        <v>87</v>
+      <c r="G22" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2203,27 +3500,29 @@
       <c r="AC22" s="7"/>
     </row>
     <row r="23" spans="1:29" ht="224.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31">
+      <c r="A23" s="57">
         <v>20</v>
       </c>
-      <c r="B23" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="30">
+      <c r="B23" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="56">
         <v>7</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="30">
-        <v>13</v>
-      </c>
-      <c r="F23" s="30" t="s">
+      <c r="E23" s="56">
+        <v>8</v>
+      </c>
+      <c r="F23" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="66" t="s">
-        <v>88</v>
+      <c r="G23" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>58</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2248,14 +3547,14 @@
       <c r="AC23" s="7"/>
     </row>
     <row r="24" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="48"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="67"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="64"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -2278,25 +3577,29 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="36">
+    <row r="25" spans="1:29" ht="337.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30">
         <v>21</v>
       </c>
-      <c r="B25" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="36">
+      <c r="B25" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="30">
         <v>8</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="72"/>
+      <c r="E25" s="81">
+        <v>13</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="77"/>
+      <c r="H25" s="34" t="s">
+        <v>61</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -2319,25 +3622,29 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="103.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="40">
+    <row r="26" spans="1:29" ht="327.60000000000002" x14ac:dyDescent="0.35">
+      <c r="A26" s="78">
         <v>22</v>
       </c>
-      <c r="B26" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="36">
+      <c r="B26" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30">
         <v>8</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="41"/>
+      <c r="E26" s="32">
+        <v>34</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80" t="s">
+        <v>63</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2361,14 +3668,14 @@
       <c r="AC26" s="7"/>
     </row>
     <row r="27" spans="1:29" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -2392,24 +3699,24 @@
       <c r="AC27" s="7"/>
     </row>
     <row r="28" spans="1:29" ht="94.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40">
+      <c r="A28" s="38">
         <v>23</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="37">
+      <c r="B28" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="36">
         <v>9</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -2433,24 +3740,24 @@
       <c r="AC28" s="7"/>
     </row>
     <row r="29" spans="1:29" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40">
+      <c r="A29" s="38">
         <v>24</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="37">
+      <c r="B29" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="36">
         <v>9</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -2474,24 +3781,24 @@
       <c r="AC29" s="7"/>
     </row>
     <row r="30" spans="1:29" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40">
+      <c r="A30" s="38">
         <v>25</v>
       </c>
-      <c r="B30" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="37">
+      <c r="B30" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="36">
         <v>10</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="41"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -2515,24 +3822,24 @@
       <c r="AC30" s="7"/>
     </row>
     <row r="31" spans="1:29" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="40">
+      <c r="A31" s="38">
         <v>26</v>
       </c>
-      <c r="B31" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="37">
+      <c r="B31" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="36">
         <v>10</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="41"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -2556,24 +3863,24 @@
       <c r="AC31" s="7"/>
     </row>
     <row r="32" spans="1:29" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40">
+      <c r="A32" s="38">
         <v>27</v>
       </c>
-      <c r="B32" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="37">
+      <c r="B32" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="36">
         <v>10</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -2597,24 +3904,24 @@
       <c r="AC32" s="7"/>
     </row>
     <row r="33" spans="1:29" ht="93.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40">
+      <c r="A33" s="38">
         <v>28</v>
       </c>
-      <c r="B33" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="37">
+      <c r="B33" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="36">
         <v>10</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="41"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2638,24 +3945,24 @@
       <c r="AC33" s="7"/>
     </row>
     <row r="34" spans="1:29" ht="93.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="40">
+      <c r="A34" s="38">
         <v>29</v>
       </c>
-      <c r="B34" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="B34" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="36">
         <v>10</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="41"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -2679,24 +3986,24 @@
       <c r="AC34" s="7"/>
     </row>
     <row r="35" spans="1:29" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="40">
+      <c r="A35" s="38">
         <v>30</v>
       </c>
-      <c r="B35" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="37">
+      <c r="B35" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="36">
         <v>11</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="41"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -3062,7 +4369,7 @@
     </row>
     <row r="47" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="69"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
@@ -3093,7 +4400,7 @@
     </row>
     <row r="48" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
-      <c r="B48" s="70"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="3"/>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
@@ -3124,7 +4431,7 @@
     </row>
     <row r="49" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
-      <c r="B49" s="70"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="3"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3217,7 +4524,7 @@
     </row>
     <row r="52" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
-      <c r="B52" s="70"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="3"/>
       <c r="D52" s="7"/>
       <c r="E52" s="8"/>
@@ -33058,14 +34365,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702733D5-5995-4FC8-88D3-37A467A289D6}">
   <dimension ref="A1:H1024"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="12" customWidth="1"/>
     <col min="3" max="3" width="61.5546875" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
@@ -33074,557 +34381,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="56">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="56">
         <v>3</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="73"/>
+      <c r="E2" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="69"/>
       <c r="H2" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="9" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="9" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="9" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="9" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
+      <c r="A9" s="56">
         <v>2</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="56">
         <v>1</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="59">
+      <c r="C9" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="56">
         <v>5</v>
       </c>
-      <c r="E9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="9" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="9" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="56">
         <v>2</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="59">
+      <c r="C12" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="56">
         <v>3</v>
       </c>
-      <c r="E12" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="59"/>
+      <c r="E12" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
+      <c r="A16" s="56">
         <v>4</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="56">
         <v>2</v>
       </c>
-      <c r="C16" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="59">
+      <c r="C16" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="56">
         <v>5</v>
       </c>
-      <c r="E16" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="59"/>
+      <c r="E16" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
+      <c r="A20" s="56">
         <v>5</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="56">
         <v>2</v>
       </c>
-      <c r="C20" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="59">
+      <c r="C20" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="56">
         <v>3</v>
       </c>
-      <c r="E20" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="59"/>
+      <c r="E20" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="13"/>
       <c r="C21" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="13"/>
       <c r="C22" s="17" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="59">
+      <c r="A25" s="56">
         <v>6</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="56">
         <v>3</v>
       </c>
-      <c r="C25" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="59">
+      <c r="C25" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="56">
         <v>1</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="59"/>
+      <c r="E25" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="56"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="73">
+      <c r="A28" s="69">
         <v>7</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="56">
         <v>4</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="73">
+      <c r="C28" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="69">
         <v>8</v>
       </c>
-      <c r="E28" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="73"/>
+      <c r="E28" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="69"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="13"/>
       <c r="C29" s="17" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="13"/>
       <c r="C30" s="17" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A31" s="19"/>
       <c r="B31" s="13"/>
       <c r="C31" s="17" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A32" s="19"/>
       <c r="B32" s="13"/>
       <c r="C32" s="17" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="73">
+      <c r="A33" s="69">
         <v>8</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="56">
         <v>3</v>
       </c>
-      <c r="C33" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="73">
+      <c r="C33" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="69">
         <v>8</v>
       </c>
-      <c r="E33" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="73"/>
+      <c r="E33" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="69"/>
     </row>
     <row r="34" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="13"/>
       <c r="C34" s="17" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="58"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="19" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
       <c r="B35" s="13"/>
       <c r="C35" s="17" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D35" s="16"/>
-      <c r="E35" s="58"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="19" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52">
+      <c r="A36" s="50">
         <v>9</v>
       </c>
       <c r="B36" s="30">
         <v>5</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="52">
+        <v>33</v>
+      </c>
+      <c r="D36" s="50">
         <v>13</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="52"/>
+        <v>60</v>
+      </c>
+      <c r="F36" s="50"/>
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
       <c r="B37" s="13"/>
       <c r="C37" s="17" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="12" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="B38" s="10"/>
       <c r="C38" s="17" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="12" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
       <c r="B39" s="10"/>
       <c r="C39" s="17" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="19" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="B40" s="10"/>
       <c r="C40" s="17" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
@@ -36596,625 +37903,643 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF6F9B-ED6F-42FB-8E8F-06F125F44E51}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="91" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="57.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="78" x14ac:dyDescent="0.35">
-      <c r="A2" s="30">
+      <c r="A2" s="56">
         <v>9</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="56">
         <v>5</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="73"/>
       <c r="H2" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="9" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="56">
         <v>10</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="56">
         <v>6</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="30">
+      <c r="C4" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="56">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="9" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="9" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="9" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A8" s="56">
         <v>11</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B8" s="56">
         <v>6</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="C8" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="56">
         <v>3</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="17" t="s">
-        <v>95</v>
+      <c r="C10" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="F11" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
         <v>12</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B12" s="56">
         <v>6</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="30">
+      <c r="C12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="56">
         <v>3</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E12" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>97</v>
+      <c r="C15" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="9" t="s">
-        <v>96</v>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
+        <v>13</v>
+      </c>
+      <c r="B16" s="56">
+        <v>6</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="56">
+        <v>2</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
-        <v>98</v>
+      <c r="A18" s="18"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>13</v>
-      </c>
-      <c r="B19" s="30">
-        <v>6</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="30">
-        <v>2</v>
-      </c>
-      <c r="E19" s="33" t="s">
+      <c r="F18" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="78" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
+        <v>14</v>
+      </c>
+      <c r="B20" s="56">
+        <v>7</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="56">
+        <v>8</v>
+      </c>
+      <c r="E20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="13"/>
       <c r="C21" s="17" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="17" t="s">
-        <v>99</v>
+      <c r="C22" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="78" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>14</v>
-      </c>
-      <c r="B23" s="30">
-        <v>7</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="30">
-        <v>8</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="F22" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A24" s="69">
+        <v>15</v>
+      </c>
+      <c r="B24" s="56">
+        <v>6</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="69">
+        <v>2</v>
+      </c>
+      <c r="E24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
+      <c r="F24" s="73"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
+      <c r="F25" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="17" t="s">
-        <v>101</v>
+      <c r="C26" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="F26" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="17" t="s">
-        <v>102</v>
+      <c r="C27" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="F27" s="19" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A28" s="52">
-        <v>15</v>
-      </c>
-      <c r="B28" s="30">
+      <c r="A28" s="69">
+        <v>16</v>
+      </c>
+      <c r="B28" s="56">
         <v>6</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="52">
+      <c r="C28" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="69">
         <v>2</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="53"/>
+      <c r="F28" s="73"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="13"/>
       <c r="C29" s="17" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="17" t="s">
-        <v>107</v>
+      <c r="C30" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="F30" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A31" s="19"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="17" t="s">
-        <v>105</v>
+      <c r="C31" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="F31" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A32" s="52">
-        <v>16</v>
-      </c>
-      <c r="B32" s="30">
+      <c r="A32" s="69">
+        <v>17</v>
+      </c>
+      <c r="B32" s="56">
         <v>6</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="52">
+      <c r="C32" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="69">
         <v>2</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="17" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A34" s="19"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="17" t="s">
-        <v>116</v>
+      <c r="A34" s="18"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="17" t="s">
-        <v>108</v>
+      <c r="F34" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A35" s="18"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A36" s="52">
+      <c r="F35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="30">
+    </row>
+    <row r="36" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
+      <c r="A36" s="69">
+        <v>18</v>
+      </c>
+      <c r="B36" s="56">
         <v>6</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="52">
-        <v>2</v>
-      </c>
-      <c r="E36" s="33" t="s">
+      <c r="C36" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="69">
+        <v>3</v>
+      </c>
+      <c r="E36" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="53"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="10"/>
+      <c r="F36" s="73"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A40" s="52">
-        <v>18</v>
-      </c>
-      <c r="B40" s="30">
+        <v>120</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+      <c r="A40" s="69">
+        <v>19</v>
+      </c>
+      <c r="B40" s="56">
         <v>6</v>
       </c>
-      <c r="C40" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="52">
-        <v>3</v>
-      </c>
-      <c r="E40" s="33" t="s">
+      <c r="C40" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="69">
+        <v>5</v>
+      </c>
+      <c r="E40" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="73"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="C41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C43" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="78" x14ac:dyDescent="0.35">
-      <c r="A45" s="52">
-        <v>19</v>
-      </c>
-      <c r="B45" s="30">
-        <v>6</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="52">
-        <v>5</v>
-      </c>
-      <c r="E45" s="33" t="s">
+      <c r="F43" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+      <c r="A44" s="69">
+        <v>20</v>
+      </c>
+      <c r="B44" s="56">
+        <v>7</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="69">
+        <v>8</v>
+      </c>
+      <c r="E44" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="53"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F44" s="73"/>
+    </row>
+    <row r="45" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F46" s="74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="78" x14ac:dyDescent="0.35">
-      <c r="A51" s="52">
-        <v>20</v>
-      </c>
-      <c r="B51" s="30">
-        <v>7</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="52">
-        <v>8</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="53"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="3:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B37:B39" xr:uid="{D8574178-EE6A-4005-8EFB-7D3289AF7FFB}">
+    <dataValidation type="list" allowBlank="1" sqref="B33:B35" xr:uid="{D8574178-EE6A-4005-8EFB-7D3289AF7FFB}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37222,24 +38547,825 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C025535A-CE65-4310-A81C-24C4E9E68CD6}">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="84" x14ac:dyDescent="0.35">
+      <c r="A2" s="33">
+        <v>21</v>
+      </c>
+      <c r="B2" s="33">
+        <v>8</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="33">
+        <v>13</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="H2" s="87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+    </row>
+    <row r="4" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+    </row>
+    <row r="5" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>22</v>
+      </c>
+      <c r="B7" s="33">
+        <v>8</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="33">
+        <v>34</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="86"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+    </row>
+    <row r="11" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="19"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C39" s="17"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+      <c r="F45" s="74"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="F46" s="74"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
+      <c r="F47" s="74"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="3:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B36:B38 C7" xr:uid="{EB762F45-B64D-4A23-A6AC-AD52E5328B7E}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC9ED34-1AF5-4A77-BE8D-440BC36B0070}">
+  <dimension ref="C3:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="91"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C5" s="70">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71">
+        <v>45250</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="70">
+        <v>137</v>
+      </c>
+      <c r="G5" s="70">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C6" s="70">
+        <v>1</v>
+      </c>
+      <c r="D6" s="71">
+        <v>45251</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="70">
+        <v>129</v>
+      </c>
+      <c r="G6" s="70">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C7" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71">
+        <v>45252</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="70">
+        <v>122</v>
+      </c>
+      <c r="G7" s="70">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C8" s="70">
+        <v>1</v>
+      </c>
+      <c r="D8" s="71">
+        <v>45253</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="70">
+        <v>111</v>
+      </c>
+      <c r="G8" s="70">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C9" s="70">
+        <v>1</v>
+      </c>
+      <c r="D9" s="71">
+        <v>45254</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="70">
+        <v>104</v>
+      </c>
+      <c r="G9" s="70">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C10" s="70">
+        <v>1</v>
+      </c>
+      <c r="D10" s="71">
+        <v>45255</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="70">
+        <v>96</v>
+      </c>
+      <c r="G10" s="70">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="70">
+        <v>1</v>
+      </c>
+      <c r="D11" s="71">
+        <v>45256</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="70">
+        <v>88</v>
+      </c>
+      <c r="G11" s="70">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="70">
+        <v>2</v>
+      </c>
+      <c r="D12" s="71">
+        <v>45257</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="70">
+        <v>81</v>
+      </c>
+      <c r="G12" s="70">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="70">
+        <v>2</v>
+      </c>
+      <c r="D13" s="71">
+        <v>45258</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="70">
+        <v>74</v>
+      </c>
+      <c r="G13" s="70">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="70">
+        <v>2</v>
+      </c>
+      <c r="D14" s="71">
+        <v>45259</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="70">
+        <v>70</v>
+      </c>
+      <c r="G14" s="70">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="70">
+        <v>2</v>
+      </c>
+      <c r="D15" s="71">
+        <v>45260</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="70">
+        <v>62</v>
+      </c>
+      <c r="G15" s="70">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C16" s="70">
+        <v>2</v>
+      </c>
+      <c r="D16" s="71">
+        <v>45261</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="70">
+        <v>55</v>
+      </c>
+      <c r="G16" s="70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="70">
+        <v>2</v>
+      </c>
+      <c r="D17" s="71">
+        <v>45262</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="70">
+        <v>48</v>
+      </c>
+      <c r="G17" s="70">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C18" s="70">
+        <v>2</v>
+      </c>
+      <c r="D18" s="71">
+        <v>45263</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="70">
+        <v>35</v>
+      </c>
+      <c r="G18" s="70">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+    </row>
+    <row r="20" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+    </row>
+    <row r="21" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+    </row>
+    <row r="22" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+    </row>
+    <row r="23" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+    </row>
+    <row r="27" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E27" s="72"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E28" s="72"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E29" s="72"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E30" s="72"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E31" s="72"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+    </row>
+    <row r="32" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E32" s="72"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="7" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="1106f65a84b95f72a5779278a76493c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cff42edc-c61c-4f4e-a404-7f98bf7ffabe" xmlns:ns4="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2bfd2deab1e7c17a6fd680c7b0ccc663" ns3:_="" ns4:_="">
     <xsd:import namespace="cff42edc-c61c-4f4e-a404-7f98bf7ffabe"/>
@@ -37422,32 +39548,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D81426-816F-45B2-85EE-2F928428D617}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EF7674-0C4D-495E-A93E-47453156E0FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="cff42edc-c61c-4f4e-a404-7f98bf7ffabe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{267D6792-3005-46D7-935D-40B1E3BB51A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37464,4 +39582,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EF7674-0C4D-495E-A93E-47453156E0FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D81426-816F-45B2-85EE-2F928428D617}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SprintPlanning.xlsx
+++ b/SprintPlanning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annamaria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amost\Desktop\SE\SECONDO SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA69BF-5EB0-4672-9616-C2A99961BE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E039D8D-C3D3-48DF-976B-7054169E041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="612" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1084,10 +1084,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale 2" xfId="2" xr:uid="{10C147A4-DB2E-48A4-94C5-D91728D124B2}"/>
@@ -1292,46 +1293,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>48</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>35</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,46 +1440,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>84</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,8 +2480,8 @@
   </sheetPr>
   <dimension ref="A1:AC1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -37905,7 +37906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF6F9B-ED6F-42FB-8E8F-06F125F44E51}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -38551,7 +38552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C025535A-CE65-4310-A81C-24C4E9E68CD6}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -38997,10 +38998,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC9ED34-1AF5-4A77-BE8D-440BC36B0070}">
-  <dimension ref="C3:G32"/>
+  <dimension ref="C3:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39017,10 +39018,10 @@
         <v>135</v>
       </c>
       <c r="E3" s="70"/>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="91"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="70" t="s">
@@ -39050,10 +39051,10 @@
         <v>142</v>
       </c>
       <c r="F5" s="70">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G5" s="70">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39067,10 +39068,10 @@
         <v>143</v>
       </c>
       <c r="F6" s="70">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G6" s="70">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39080,14 +39081,14 @@
       <c r="D7" s="71">
         <v>45252</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="91" t="s">
         <v>144</v>
       </c>
       <c r="F7" s="70">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G7" s="70">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39101,10 +39102,10 @@
         <v>145</v>
       </c>
       <c r="F8" s="70">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G8" s="70">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39118,10 +39119,10 @@
         <v>146</v>
       </c>
       <c r="F9" s="70">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G9" s="70">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39135,10 +39136,10 @@
         <v>147</v>
       </c>
       <c r="F10" s="70">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G10" s="70">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39148,14 +39149,14 @@
       <c r="D11" s="71">
         <v>45256</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="91" t="s">
         <v>148</v>
       </c>
       <c r="F11" s="70">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G11" s="70">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39169,10 +39170,10 @@
         <v>142</v>
       </c>
       <c r="F12" s="70">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G12" s="70">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39186,10 +39187,10 @@
         <v>143</v>
       </c>
       <c r="F13" s="70">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G13" s="70">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39203,10 +39204,10 @@
         <v>144</v>
       </c>
       <c r="F14" s="70">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G14" s="70">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39220,10 +39221,10 @@
         <v>145</v>
       </c>
       <c r="F15" s="70">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G15" s="70">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39237,10 +39238,10 @@
         <v>146</v>
       </c>
       <c r="F16" s="70">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G16" s="70">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39254,10 +39255,10 @@
         <v>147</v>
       </c>
       <c r="F17" s="70">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G17" s="70">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39271,10 +39272,10 @@
         <v>148</v>
       </c>
       <c r="F18" s="70">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G18" s="70">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -39291,17 +39292,16 @@
       <c r="F20" s="70"/>
       <c r="G20" s="70"/>
     </row>
-    <row r="21" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-    </row>
-    <row r="22" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="90"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="70"/>
       <c r="G22" s="70"/>
     </row>
@@ -39322,43 +39322,126 @@
     <row r="25" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25" s="70"/>
       <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
     </row>
+    <row r="26" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+    </row>
     <row r="27" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="72"/>
       <c r="F27" s="70"/>
       <c r="G27" s="70"/>
     </row>
     <row r="28" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="72"/>
       <c r="F28" s="70"/>
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E29" s="72"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="91"/>
       <c r="F29" s="70"/>
       <c r="G29" s="70"/>
     </row>
     <row r="30" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="72"/>
       <c r="F30" s="70"/>
       <c r="G30" s="70"/>
     </row>
     <row r="31" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="72"/>
       <c r="F31" s="70"/>
       <c r="G31" s="70"/>
     </row>
     <row r="32" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="72"/>
       <c r="F32" s="70"/>
       <c r="G32" s="70"/>
     </row>
+    <row r="33" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+    </row>
+    <row r="34" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+    </row>
+    <row r="35" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+    </row>
+    <row r="36" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+    </row>
+    <row r="37" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C37" s="70"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="72"/>
+    </row>
+    <row r="38" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C38" s="70"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="72"/>
+    </row>
+    <row r="39" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C39" s="70"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="72"/>
+    </row>
+    <row r="40" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C40" s="70"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="72"/>
+    </row>
+    <row r="41" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C41" s="70"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="72"/>
+    </row>
+    <row r="42" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C42" s="70"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="72"/>
+    </row>
+    <row r="43" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C43" s="70"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="72"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39366,6 +39449,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="7" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="1106f65a84b95f72a5779278a76493c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cff42edc-c61c-4f4e-a404-7f98bf7ffabe" xmlns:ns4="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2bfd2deab1e7c17a6fd680c7b0ccc663" ns3:_="" ns4:_="">
     <xsd:import namespace="cff42edc-c61c-4f4e-a404-7f98bf7ffabe"/>
@@ -39548,24 +39648,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D81426-816F-45B2-85EE-2F928428D617}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EF7674-0C4D-495E-A93E-47453156E0FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{267D6792-3005-46D7-935D-40B1E3BB51A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39582,22 +39683,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EF7674-0C4D-495E-A93E-47453156E0FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D81426-816F-45B2-85EE-2F928428D617}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SprintPlanning.xlsx
+++ b/SprintPlanning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amost\Desktop\SE\SECONDO SPRINT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amost\Desktop\SE\TERZO SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E039D8D-C3D3-48DF-976B-7054169E041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09BCE601-FFBC-45DA-A778-F5CEB3649712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="612" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="612" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="154">
   <si>
     <t>#ID</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Come utente, voglio poter definire dei contatori con un proprio nome e un valore intero preimpostato, in modo da tenere traccia di determinati valori di interesse.</t>
   </si>
   <si>
-    <t>WAITING FOR ESTIMATION</t>
-  </si>
-  <si>
     <t>Come utente, voglio poter visualizzare e modificare il valore dei contatori già creati, in modo da gestire più agevolmente i valori dei contatori.</t>
   </si>
   <si>
@@ -293,25 +290,6 @@
   </si>
   <si>
     <t>Come utente, voglio poter utilizzare il valore di uno specifico contatore come variabile all'interno delle azioni che operano con le stringhe, in modo da rendere dinamico il testo generato da un'azione.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Karla"/>
-      </rPr>
-      <t>Velocità stimata:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Karla"/>
-      </rPr>
-      <t xml:space="preserve"> 49</t>
-    </r>
   </si>
   <si>
     <t>Realizzazione dell'interfaccia grafica in FXML secondo il prototipo.</t>
@@ -494,9 +472,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Velocità stimata:47 </t>
-  </si>
-  <si>
     <t>Raffaele Sbardella
 Alessandro Marchesano</t>
   </si>
@@ -553,12 +528,6 @@
   </si>
   <si>
     <t>Come utente, voglio poter impostare come azione una sequenza di azioni, la quale può contenere azioni elementari o altre sequenze, in modo da raggruppare azioni attivate dal medesimo trigger in un'unica regola.</t>
-  </si>
-  <si>
-    <t>Velocità stimata: 47</t>
-  </si>
-  <si>
-    <t>Aggiornamento della classe Rule</t>
   </si>
   <si>
     <t>Aggiornamento dell'interfaccia grafica per consentire di creare una sequenza di azioni</t>
@@ -623,12 +592,167 @@
   <si>
     <t>Sun</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Velocità effettiva:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Velocità stimata:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Velocità stimata: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55 (47 + 8 di Refactoring)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Velocità effettiva: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">55 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Velocità stimata:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 55 (47 + 8 di Refactoring)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Velocità effettiva:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 55 </t>
+    </r>
+  </si>
+  <si>
+    <t>Implementazione pattern Composite</t>
+  </si>
+  <si>
+    <t>Alessandro Marchesano
+Valentina Micera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Alessandro Marchesano
+Valentina Micera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Amos Tecce
+Raffaele Sbardella</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -768,6 +892,51 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -836,7 +1005,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,14 +1094,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1014,9 +1177,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1045,37 +1205,11 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,10 +1219,20 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale 2" xfId="2" xr:uid="{10C147A4-DB2E-48A4-94C5-D91728D124B2}"/>
@@ -1237,10 +1381,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Chart'!$D$5:$D$18</c:f>
+              <c:f>'Burndown Chart'!$D$5:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45250</c:v>
                 </c:pt>
@@ -1283,56 +1427,98 @@
                 <c:pt idx="13">
                   <c:v>45263</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45270</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$F$5:$F$18</c:f>
+              <c:f>'Burndown Chart'!$F$5:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>72</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>47</c:v>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,10 +1570,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Chart'!$D$5:$D$18</c:f>
+              <c:f>'Burndown Chart'!$D$5:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45250</c:v>
                 </c:pt>
@@ -1430,56 +1616,98 @@
                 <c:pt idx="13">
                   <c:v>45263</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45270</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$G$5:$G$18</c:f>
+              <c:f>'Burndown Chart'!$G$5:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>108</c:v>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>58</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47</c:v>
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,10 +2474,10 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2481,47 +2709,47 @@
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="65" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="12" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="23" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.33203125" style="68" customWidth="1"/>
+    <col min="8" max="8" width="56.33203125" style="65" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
@@ -2547,28 +2775,28 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="213" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="54">
         <v>3</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1"/>
@@ -2594,28 +2822,28 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="85.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56">
+      <c r="A3" s="54">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="54">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="54">
         <v>5</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="59" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1"/>
@@ -2641,28 +2869,28 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="114.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56">
+      <c r="A4" s="54">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="54">
         <v>2</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="54">
         <v>3</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="59" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1"/>
@@ -2688,28 +2916,28 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="162" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56">
+      <c r="A5" s="54">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="54">
         <v>2</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="54">
         <v>5</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="59" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="1"/>
@@ -2735,28 +2963,28 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="258" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="54">
         <v>2</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>3</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="59" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="1"/>
@@ -2782,7 +3010,7 @@
     </row>
     <row r="7" spans="1:29" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -2812,28 +3040,28 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="121.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56">
+      <c r="A8" s="54">
         <v>6</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="54">
         <v>3</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="54">
         <v>1</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="59" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="1"/>
@@ -2859,28 +3087,28 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="56">
+      <c r="A9" s="54">
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="54">
         <v>4</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="54">
         <v>8</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="59" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="1"/>
@@ -2906,28 +3134,28 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" ht="204" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56">
+      <c r="A10" s="54">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="54">
         <v>3</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="54">
         <v>8</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="59" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="1"/>
@@ -2953,28 +3181,28 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="170.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="56">
+      <c r="A11" s="54">
         <v>9</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="54">
         <v>5</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="54">
         <v>13</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="72" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="1"/>
@@ -3001,11 +3229,11 @@
     </row>
     <row r="12" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
-      <c r="B12" s="62"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="35"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="27"/>
       <c r="H12" s="29"/>
       <c r="I12" s="1"/>
@@ -3031,28 +3259,28 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="57">
+      <c r="A13" s="55">
         <v>10</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="54">
         <v>6</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="54">
         <v>3</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="59" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="1"/>
@@ -3078,28 +3306,28 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="193.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57">
+      <c r="A14" s="55">
         <v>11</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="54">
         <v>6</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="54">
         <v>3</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="59" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="1"/>
@@ -3125,28 +3353,28 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57">
+      <c r="A15" s="55">
         <v>12</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="54">
         <v>6</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="54">
         <v>3</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="59" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="4"/>
@@ -3172,28 +3400,28 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="129.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57">
+      <c r="A16" s="55">
         <v>13</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="54">
         <v>6</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="54">
         <v>2</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>42</v>
       </c>
       <c r="I16" s="7"/>
@@ -3219,28 +3447,28 @@
       <c r="AC16" s="7"/>
     </row>
     <row r="17" spans="1:29" ht="178.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57">
+      <c r="A17" s="55">
         <v>14</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="54">
         <v>7</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="54">
         <v>8</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="H17" s="59" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="7"/>
@@ -3266,28 +3494,28 @@
       <c r="AC17" s="7"/>
     </row>
     <row r="18" spans="1:29" ht="82.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57">
+      <c r="A18" s="55">
         <v>15</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="54">
         <v>6</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="54">
         <v>2</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="59" t="s">
         <v>48</v>
       </c>
       <c r="I18" s="7"/>
@@ -3313,28 +3541,28 @@
       <c r="AC18" s="7"/>
     </row>
     <row r="19" spans="1:29" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="57">
+      <c r="A19" s="55">
         <v>16</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="54">
         <v>6</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="54">
         <v>2</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="59" t="s">
         <v>50</v>
       </c>
       <c r="I19" s="7"/>
@@ -3360,28 +3588,28 @@
       <c r="AC19" s="7"/>
     </row>
     <row r="20" spans="1:29" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="57">
+      <c r="A20" s="55">
         <v>17</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="54">
         <v>6</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="54">
         <v>2</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="59" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="7"/>
@@ -3407,28 +3635,28 @@
       <c r="AC20" s="7"/>
     </row>
     <row r="21" spans="1:29" ht="154.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="57">
+      <c r="A21" s="55">
         <v>18</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="54">
         <v>6</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="54">
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="59" t="s">
         <v>54</v>
       </c>
       <c r="I21" s="7"/>
@@ -3454,28 +3682,28 @@
       <c r="AC21" s="7"/>
     </row>
     <row r="22" spans="1:29" ht="206.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="57">
+      <c r="A22" s="55">
         <v>19</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="54">
         <v>6</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="54">
         <v>5</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="59" t="s">
         <v>56</v>
       </c>
       <c r="I22" s="7"/>
@@ -3501,28 +3729,28 @@
       <c r="AC22" s="7"/>
     </row>
     <row r="23" spans="1:29" ht="224.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="57">
+      <c r="A23" s="55">
         <v>20</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="54">
         <v>7</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="54">
         <v>8</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="59" t="s">
         <v>58</v>
       </c>
       <c r="I23" s="7"/>
@@ -3548,14 +3776,14 @@
       <c r="AC23" s="7"/>
     </row>
     <row r="24" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="46"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="64"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -3579,26 +3807,28 @@
       <c r="AC24" s="7"/>
     </row>
     <row r="25" spans="1:29" ht="337.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30">
+      <c r="A25" s="54">
         <v>21</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="54">
         <v>8</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="54">
         <v>13</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="34" t="s">
+      <c r="F25" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="54" t="s">
         <v>61</v>
       </c>
       <c r="I25" s="7"/>
@@ -3624,26 +3854,28 @@
       <c r="AC25" s="7"/>
     </row>
     <row r="26" spans="1:29" ht="327.60000000000002" x14ac:dyDescent="0.35">
-      <c r="A26" s="78">
+      <c r="A26" s="54">
         <v>22</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="54">
         <v>8</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="54">
         <v>34</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80" t="s">
+      <c r="F26" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="54" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="7"/>
@@ -3669,14 +3901,14 @@
       <c r="AC26" s="7"/>
     </row>
     <row r="27" spans="1:29" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="44"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -3700,24 +3932,26 @@
       <c r="AC27" s="7"/>
     </row>
     <row r="28" spans="1:29" ht="94.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="38">
+      <c r="A28" s="36">
         <v>23</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="34">
         <v>9</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="39"/>
+      <c r="E28" s="34">
+        <v>5</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -3741,24 +3975,26 @@
       <c r="AC28" s="7"/>
     </row>
     <row r="29" spans="1:29" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38">
+      <c r="A29" s="36">
         <v>24</v>
       </c>
-      <c r="B29" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="36">
+      <c r="B29" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="34">
         <v>9</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="39"/>
+      <c r="E29" s="34">
+        <v>2</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3782,24 +4018,26 @@
       <c r="AC29" s="7"/>
     </row>
     <row r="30" spans="1:29" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="38">
+      <c r="A30" s="36">
         <v>25</v>
       </c>
-      <c r="B30" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="36">
+      <c r="B30" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="34">
         <v>10</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="39"/>
+      <c r="E30" s="34">
+        <v>3</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -3823,24 +4061,26 @@
       <c r="AC30" s="7"/>
     </row>
     <row r="31" spans="1:29" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38">
+      <c r="A31" s="36">
         <v>26</v>
       </c>
-      <c r="B31" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="36">
+      <c r="B31" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="34">
         <v>10</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="39"/>
+      <c r="E31" s="34">
+        <v>3</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -3864,24 +4104,26 @@
       <c r="AC31" s="7"/>
     </row>
     <row r="32" spans="1:29" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38">
+      <c r="A32" s="36">
         <v>27</v>
       </c>
-      <c r="B32" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="36">
+      <c r="B32" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="34">
         <v>10</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="39"/>
+      <c r="E32" s="34">
+        <v>3</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -3905,24 +4147,26 @@
       <c r="AC32" s="7"/>
     </row>
     <row r="33" spans="1:29" ht="93.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38">
+      <c r="A33" s="36">
         <v>28</v>
       </c>
-      <c r="B33" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="36">
+      <c r="B33" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="34">
         <v>10</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="39"/>
+      <c r="E33" s="34">
+        <v>3</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -3946,24 +4190,26 @@
       <c r="AC33" s="7"/>
     </row>
     <row r="34" spans="1:29" ht="93.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38">
+      <c r="A34" s="36">
         <v>29</v>
       </c>
-      <c r="B34" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="36">
+      <c r="B34" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="34">
         <v>10</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="39"/>
+      <c r="E34" s="34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -3987,24 +4233,26 @@
       <c r="AC34" s="7"/>
     </row>
     <row r="35" spans="1:29" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38">
+      <c r="A35" s="36">
         <v>30</v>
       </c>
-      <c r="B35" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="36">
+      <c r="B35" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="34">
         <v>11</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="39"/>
+      <c r="E35" s="34">
+        <v>8</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -4370,7 +4618,7 @@
     </row>
     <row r="47" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="66"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
@@ -4401,7 +4649,7 @@
     </row>
     <row r="48" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
-      <c r="B48" s="67"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="3"/>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
@@ -4432,7 +4680,7 @@
     </row>
     <row r="49" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
-      <c r="B49" s="67"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="3"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -4525,7 +4773,7 @@
     </row>
     <row r="52" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
-      <c r="B52" s="67"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="3"/>
       <c r="D52" s="7"/>
       <c r="E52" s="8"/>
@@ -34367,7 +34615,7 @@
   <dimension ref="A1:H1024"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -34382,63 +34630,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="54">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="54">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="H2" s="19" t="s">
-        <v>73</v>
+      <c r="F2" s="66"/>
+      <c r="H2" s="80" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="80" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="13"/>
@@ -34450,7 +34701,7 @@
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13"/>
@@ -34462,7 +34713,7 @@
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
@@ -34474,7 +34725,7 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
@@ -34486,7 +34737,7 @@
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="13"/>
@@ -34495,28 +34746,28 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="54">
         <v>2</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="54">
         <v>1</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="56">
+      <c r="C9" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="54">
         <v>5</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="13"/>
@@ -34528,7 +34779,7 @@
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="13"/>
@@ -34537,28 +34788,28 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="54">
         <v>3</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="54">
         <v>2</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="54">
         <v>3</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -34570,7 +34821,7 @@
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -34582,7 +34833,7 @@
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="13"/>
@@ -34591,28 +34842,28 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="54">
         <v>4</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="54">
         <v>2</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="54">
         <v>5</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="19"/>
@@ -34624,7 +34875,7 @@
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="19"/>
@@ -34636,7 +34887,7 @@
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="19"/>
@@ -34645,28 +34896,28 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="54">
         <v>5</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="54">
         <v>2</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="54">
         <v>3</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="13"/>
       <c r="C21" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="19"/>
@@ -34678,7 +34929,7 @@
       <c r="A22" s="18"/>
       <c r="B22" s="13"/>
       <c r="C22" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="19"/>
@@ -34690,7 +34941,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="19"/>
@@ -34702,7 +34953,7 @@
       <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="19"/>
@@ -34711,28 +34962,28 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="56">
+      <c r="A25" s="54">
         <v>6</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="54">
         <v>3</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="54">
         <v>1</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="19"/>
@@ -34744,7 +34995,7 @@
       <c r="A27" s="18"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="19"/>
@@ -34753,28 +35004,28 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+      <c r="A28" s="66">
         <v>7</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="54">
         <v>4</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="66">
         <v>8</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="13"/>
       <c r="C29" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="19"/>
@@ -34786,7 +35037,7 @@
       <c r="A30" s="19"/>
       <c r="B30" s="13"/>
       <c r="C30" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="19"/>
@@ -34798,7 +35049,7 @@
       <c r="A31" s="19"/>
       <c r="B31" s="13"/>
       <c r="C31" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="19"/>
@@ -34810,7 +35061,7 @@
       <c r="A32" s="19"/>
       <c r="B32" s="13"/>
       <c r="C32" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="19"/>
@@ -34819,31 +35070,31 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="69">
+      <c r="A33" s="66">
         <v>8</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="54">
         <v>3</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="69">
+      <c r="D33" s="66">
         <v>8</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="69"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="13"/>
       <c r="C34" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="55"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="19" t="s">
         <v>31</v>
       </c>
@@ -34852,16 +35103,16 @@
       <c r="A35" s="19"/>
       <c r="B35" s="13"/>
       <c r="C35" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" s="16"/>
-      <c r="E35" s="55"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+      <c r="A36" s="48">
         <v>9</v>
       </c>
       <c r="B36" s="30">
@@ -34870,20 +35121,20 @@
       <c r="C36" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="48">
         <v>13</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="50"/>
+      <c r="F36" s="48"/>
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
       <c r="B37" s="13"/>
       <c r="C37" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="12" t="s">
@@ -34897,7 +35148,7 @@
       <c r="A38" s="18"/>
       <c r="B38" s="10"/>
       <c r="C38" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="12" t="s">
@@ -34911,7 +35162,7 @@
       <c r="A39" s="18"/>
       <c r="B39" s="10"/>
       <c r="C39" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="19" t="s">
@@ -34925,11 +35176,11 @@
       <c r="A40" s="18"/>
       <c r="B40" s="10"/>
       <c r="C40" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>11</v>
@@ -37904,10 +38155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF6F9B-ED6F-42FB-8E8F-06F125F44E51}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -37918,85 +38169,90 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.21875" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78" x14ac:dyDescent="0.35">
-      <c r="A2" s="56">
+    <row r="2" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+      <c r="A2" s="54">
         <v>9</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="54">
         <v>5</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="H2" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F2" s="70"/>
+      <c r="H2" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+        <v>104</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
         <v>10</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="54">
         <v>6</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>3</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13"/>
@@ -38004,11 +38260,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
@@ -38016,11 +38272,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
@@ -38028,29 +38284,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+    <row r="8" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
         <v>11</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="54">
         <v>6</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="54">
         <v>3</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -38058,11 +38314,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -38070,11 +38326,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -38082,29 +38338,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+    <row r="12" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
         <v>12</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="54">
         <v>6</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="54">
         <v>3</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="57"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="F12" s="55"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -38112,11 +38368,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -38124,11 +38380,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -38136,29 +38392,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+    <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="54">
         <v>13</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="54">
         <v>6</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="54">
         <v>2</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="57"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -38170,7 +38426,7 @@
       <c r="A18" s="18"/>
       <c r="B18" s="13"/>
       <c r="C18" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -38182,7 +38438,7 @@
       <c r="A19" s="18"/>
       <c r="B19" s="13"/>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -38191,28 +38447,28 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="78" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="54">
         <v>14</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="54">
         <v>7</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="54">
         <v>8</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="57"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="13"/>
       <c r="C21" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -38224,7 +38480,7 @@
       <c r="A22" s="18"/>
       <c r="B22" s="13"/>
       <c r="C22" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -38236,7 +38492,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="13"/>
       <c r="C23" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -38245,28 +38501,28 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A24" s="69">
+      <c r="A24" s="66">
         <v>15</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="54">
         <v>6</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="69">
+      <c r="D24" s="66">
         <v>2</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="70"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -38278,7 +38534,7 @@
       <c r="A26" s="19"/>
       <c r="B26" s="13"/>
       <c r="C26" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -38290,37 +38546,37 @@
       <c r="A27" s="19"/>
       <c r="B27" s="13"/>
       <c r="C27" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A28" s="69">
+      <c r="A28" s="66">
         <v>16</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="54">
         <v>6</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="66">
         <v>2</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="70"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="13"/>
       <c r="C29" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -38332,7 +38588,7 @@
       <c r="A30" s="19"/>
       <c r="B30" s="13"/>
       <c r="C30" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -38344,7 +38600,7 @@
       <c r="A31" s="19"/>
       <c r="B31" s="13"/>
       <c r="C31" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -38353,28 +38609,28 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A32" s="69">
+      <c r="A32" s="66">
         <v>17</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="54">
         <v>6</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="66">
         <v>2</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="73"/>
+      <c r="F32" s="70"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
       <c r="B33" s="10"/>
       <c r="C33" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -38386,7 +38642,7 @@
       <c r="A34" s="18"/>
       <c r="B34" s="10"/>
       <c r="C34" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -38398,7 +38654,7 @@
       <c r="A35" s="18"/>
       <c r="B35" s="10"/>
       <c r="C35" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -38407,26 +38663,26 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A36" s="69">
+      <c r="A36" s="66">
         <v>18</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="54">
         <v>6</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="66">
         <v>3</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="70"/>
     </row>
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>17</v>
@@ -38434,7 +38690,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>17</v>
@@ -38442,33 +38698,33 @@
     </row>
     <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="78" x14ac:dyDescent="0.35">
-      <c r="A40" s="69">
+      <c r="A40" s="66">
         <v>19</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="54">
         <v>6</v>
       </c>
-      <c r="C40" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="69">
+      <c r="C40" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="66">
         <v>5</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="73"/>
+      <c r="F40" s="70"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>17</v>
@@ -38476,59 +38732,59 @@
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="C43" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="78" x14ac:dyDescent="0.35">
-      <c r="A44" s="69">
+      <c r="A44" s="66">
         <v>20</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="54">
         <v>7</v>
       </c>
-      <c r="C44" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="69">
+      <c r="C44" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="66">
         <v>8</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="73"/>
+      <c r="F44" s="70"/>
     </row>
     <row r="45" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="71" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="71" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="71" t="s">
         <v>44</v>
       </c>
     </row>
@@ -38552,8 +38808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C025535A-CE65-4310-A81C-24C4E9E68CD6}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -38564,155 +38820,174 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="84" x14ac:dyDescent="0.35">
-      <c r="A2" s="33">
+    <row r="2" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="A2" s="57">
         <v>21</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="57">
         <v>8</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="57">
+        <v>13</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="H2" s="81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="33">
-        <v>13</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="H2" s="87" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>22</v>
+      </c>
+      <c r="B7" s="57">
+        <v>8</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="57">
+        <v>34</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="74" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-    </row>
-    <row r="4" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84" t="s">
+      <c r="D9" s="74"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-    </row>
-    <row r="5" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-    </row>
-    <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:8" ht="84" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>22</v>
-      </c>
-      <c r="B7" s="33">
-        <v>8</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="33">
-        <v>34</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="86"/>
-    </row>
-    <row r="8" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-    </row>
-    <row r="9" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-    </row>
-    <row r="10" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-    </row>
-    <row r="11" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -38970,15 +39245,15 @@
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
-      <c r="F45" s="74"/>
+      <c r="F45" s="71"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C46" s="9"/>
-      <c r="F46" s="74"/>
+      <c r="F46" s="71"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C47" s="9"/>
-      <c r="F47" s="74"/>
+      <c r="F47" s="71"/>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C48" s="9"/>
@@ -38993,15 +39268,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC9ED34-1AF5-4A77-BE8D-440BC36B0070}">
-  <dimension ref="C3:G43"/>
+  <dimension ref="C3:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39014,434 +39290,560 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="83"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="92" t="s">
+      <c r="G4" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="92"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="70" t="s">
+    </row>
+    <row r="5" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="68">
+        <v>45250</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="F5" s="67">
+        <v>181</v>
+      </c>
+      <c r="G5" s="67">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C6" s="67">
+        <v>1</v>
+      </c>
+      <c r="D6" s="68">
+        <v>45251</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="F6" s="67">
+        <v>172</v>
+      </c>
+      <c r="G6" s="67">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C7" s="67">
+        <v>1</v>
+      </c>
+      <c r="D7" s="68">
+        <v>45252</v>
+      </c>
+      <c r="E7" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F7" s="67">
+        <v>165</v>
+      </c>
+      <c r="G7" s="67">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C8" s="67">
+        <v>1</v>
+      </c>
+      <c r="D8" s="68">
+        <v>45253</v>
+      </c>
+      <c r="E8" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="F8" s="67">
+        <v>154</v>
+      </c>
+      <c r="G8" s="67">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C9" s="67">
+        <v>1</v>
+      </c>
+      <c r="D9" s="68">
+        <v>45254</v>
+      </c>
+      <c r="E9" s="69" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C5" s="70">
+      <c r="F9" s="67">
+        <v>147</v>
+      </c>
+      <c r="G9" s="67">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C10" s="67">
         <v>1</v>
       </c>
-      <c r="D5" s="71">
-        <v>45250</v>
-      </c>
-      <c r="E5" s="72" t="s">
+      <c r="D10" s="68">
+        <v>45255</v>
+      </c>
+      <c r="E10" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="70">
-        <v>151</v>
-      </c>
-      <c r="G5" s="70">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C6" s="70">
+      <c r="F10" s="67">
+        <v>139</v>
+      </c>
+      <c r="G10" s="67">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="67">
         <v>1</v>
       </c>
-      <c r="D6" s="71">
-        <v>45251</v>
-      </c>
-      <c r="E6" s="72" t="s">
+      <c r="D11" s="68">
+        <v>45256</v>
+      </c>
+      <c r="E11" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F11" s="67">
+        <v>132</v>
+      </c>
+      <c r="G11" s="67">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="67">
+        <v>2</v>
+      </c>
+      <c r="D12" s="68">
+        <v>45257</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="67">
+        <v>125</v>
+      </c>
+      <c r="G12" s="67">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="67">
+        <v>2</v>
+      </c>
+      <c r="D13" s="68">
+        <v>45258</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="67">
+        <v>118</v>
+      </c>
+      <c r="G13" s="67">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="67">
+        <v>2</v>
+      </c>
+      <c r="D14" s="68">
+        <v>45259</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="67">
+        <v>110</v>
+      </c>
+      <c r="G14" s="67">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="67">
+        <v>2</v>
+      </c>
+      <c r="D15" s="68">
+        <v>45260</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="67">
+        <v>102</v>
+      </c>
+      <c r="G15" s="67">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C16" s="67">
+        <v>2</v>
+      </c>
+      <c r="D16" s="68">
+        <v>45261</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="67">
+        <v>93</v>
+      </c>
+      <c r="G16" s="67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="67">
+        <v>2</v>
+      </c>
+      <c r="D17" s="68">
+        <v>45262</v>
+      </c>
+      <c r="E17" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="70">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C7" s="70">
-        <v>1</v>
-      </c>
-      <c r="D7" s="71">
-        <v>45252</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="70">
-        <v>135</v>
-      </c>
-      <c r="G7" s="70">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C8" s="70">
-        <v>1</v>
-      </c>
-      <c r="D8" s="71">
-        <v>45253</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="70">
-        <v>124</v>
-      </c>
-      <c r="G8" s="70">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C9" s="70">
-        <v>1</v>
-      </c>
-      <c r="D9" s="71">
-        <v>45254</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="70">
-        <v>117</v>
-      </c>
-      <c r="G9" s="70">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="70">
-        <v>1</v>
-      </c>
-      <c r="D10" s="71">
-        <v>45255</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="70">
-        <v>109</v>
-      </c>
-      <c r="G10" s="70">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C11" s="70">
-        <v>1</v>
-      </c>
-      <c r="D11" s="71">
-        <v>45256</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="70">
-        <v>102</v>
-      </c>
-      <c r="G11" s="70">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="70">
+      <c r="F17" s="67">
+        <v>85</v>
+      </c>
+      <c r="G17" s="67">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C18" s="67">
         <v>2</v>
       </c>
-      <c r="D12" s="71">
-        <v>45257</v>
-      </c>
-      <c r="E12" s="72" t="s">
+      <c r="D18" s="68">
+        <v>45263</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="67">
+        <v>77</v>
+      </c>
+      <c r="G18" s="67">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C19" s="67">
+        <v>3</v>
+      </c>
+      <c r="D19" s="68">
+        <v>45264</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="67">
+        <v>70</v>
+      </c>
+      <c r="G19" s="67">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="67">
+        <v>3</v>
+      </c>
+      <c r="D20" s="68">
+        <v>45265</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="67">
+        <v>62</v>
+      </c>
+      <c r="G20" s="67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C21" s="82">
+        <v>3</v>
+      </c>
+      <c r="D21" s="68">
+        <v>45266</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="84">
+        <v>55</v>
+      </c>
+      <c r="G21" s="84">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C22" s="67">
+        <v>3</v>
+      </c>
+      <c r="D22" s="68">
+        <v>45267</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="67">
+        <v>50</v>
+      </c>
+      <c r="G22" s="67">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C23" s="67">
+        <v>3</v>
+      </c>
+      <c r="D23" s="68">
+        <v>45268</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="67">
+        <v>43</v>
+      </c>
+      <c r="G23" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C24" s="67">
+        <v>3</v>
+      </c>
+      <c r="D24" s="68">
+        <v>45269</v>
+      </c>
+      <c r="E24" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="70">
-        <v>95</v>
-      </c>
-      <c r="G12" s="70">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="70">
-        <v>2</v>
-      </c>
-      <c r="D13" s="71">
-        <v>45258</v>
-      </c>
-      <c r="E13" s="72" t="s">
+      <c r="F24" s="67">
+        <v>37</v>
+      </c>
+      <c r="G24" s="67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C25" s="67">
+        <v>3</v>
+      </c>
+      <c r="D25" s="68">
+        <v>45270</v>
+      </c>
+      <c r="E25" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="70">
-        <v>88</v>
-      </c>
-      <c r="G13" s="70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="70">
-        <v>2</v>
-      </c>
-      <c r="D14" s="71">
-        <v>45259</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="70">
-        <v>80</v>
-      </c>
-      <c r="G14" s="70">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C15" s="70">
-        <v>2</v>
-      </c>
-      <c r="D15" s="71">
-        <v>45260</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="70">
-        <v>72</v>
-      </c>
-      <c r="G15" s="70">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C16" s="70">
-        <v>2</v>
-      </c>
-      <c r="D16" s="71">
-        <v>45261</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="70">
-        <v>63</v>
-      </c>
-      <c r="G16" s="70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="70">
-        <v>2</v>
-      </c>
-      <c r="D17" s="71">
-        <v>45262</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="70">
-        <v>55</v>
-      </c>
-      <c r="G17" s="70">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18" s="70">
-        <v>2</v>
-      </c>
-      <c r="D18" s="71">
-        <v>45263</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="70">
-        <v>47</v>
-      </c>
-      <c r="G18" s="70">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-    </row>
-    <row r="20" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="90"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-    </row>
-    <row r="23" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-    </row>
-    <row r="24" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-    </row>
-    <row r="25" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+      <c r="F25" s="67">
+        <v>30</v>
+      </c>
+      <c r="G25" s="67">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-    </row>
-    <row r="28" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C37" s="70"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="72"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C38" s="70"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="72"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C39" s="70"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="72"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C40" s="70"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="72"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C41" s="70"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="72"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C42" s="70"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="72"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C43" s="70"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="72"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+    </row>
+    <row r="44" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C45" s="82"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+    </row>
+    <row r="46" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+    </row>
+    <row r="47" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+    </row>
+    <row r="48" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+    </row>
+    <row r="49" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39449,23 +39851,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="7" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="1106f65a84b95f72a5779278a76493c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cff42edc-c61c-4f4e-a404-7f98bf7ffabe" xmlns:ns4="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2bfd2deab1e7c17a6fd680c7b0ccc663" ns3:_="" ns4:_="">
     <xsd:import namespace="cff42edc-c61c-4f4e-a404-7f98bf7ffabe"/>
@@ -39648,25 +40033,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D81426-816F-45B2-85EE-2F928428D617}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EF7674-0C4D-495E-A93E-47453156E0FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{267D6792-3005-46D7-935D-40B1E3BB51A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39683,4 +40067,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D81426-816F-45B2-85EE-2F928428D617}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EF7674-0C4D-495E-A93E-47453156E0FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>